--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.3660760679102279</v>
+        <v>0.3660760679102281</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4558666927943644</v>
+        <v>0.4558666927943643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4083322848247272</v>
+        <v>0.4083322848247271</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.292426911123183</v>
+        <v>0.2969906389508857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3913956725719306</v>
+        <v>0.3769889983953709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3613431254316542</v>
+        <v>0.3554262903785387</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4405872210635188</v>
+        <v>0.4500026136548925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5292080620980997</v>
+        <v>0.5251909000164648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4582393035547084</v>
+        <v>0.4601541146636557</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.397225325975785</v>
+        <v>0.3972253259757849</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.374335660531424</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3430063696515528</v>
+        <v>0.3400409301958092</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3239220869317362</v>
+        <v>0.3267384920821014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3508714165980022</v>
+        <v>0.3511400320478884</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.460615358757443</v>
+        <v>0.4561189696305106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.419790824876168</v>
+        <v>0.4194459067975886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4220675426481171</v>
+        <v>0.4212501446180514</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3748520587110036</v>
+        <v>0.3748520587110037</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.3810246967828419</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3335512182575646</v>
+        <v>0.3364780490668325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.351459634689368</v>
+        <v>0.3509713834311833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3512532568512202</v>
+        <v>0.3532205814046568</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4178944027598446</v>
+        <v>0.4150292062407458</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.416599441293825</v>
+        <v>0.4141550760380325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.404795415712308</v>
+        <v>0.4029751812105384</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.3830079222188528</v>
+        <v>0.3830079222188526</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.4392888788396835</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4118449089825783</v>
+        <v>0.4118449089825784</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3426842105531105</v>
+        <v>0.3478794894803834</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4127514360460992</v>
+        <v>0.4118110300641735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3888870893166635</v>
+        <v>0.3875727646702749</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4221143345112748</v>
+        <v>0.4219129801112651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4686332626942427</v>
+        <v>0.4702467819693236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4345127511779254</v>
+        <v>0.4367945770766962</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.3816456550033093</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.420946934087967</v>
+        <v>0.4209469340879672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4013180473179388</v>
+        <v>0.4013180473179387</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3434729183827108</v>
+        <v>0.3440505209452652</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3884605493135345</v>
+        <v>0.3926258500464798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3768545788403528</v>
+        <v>0.3782585142364262</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4173142137054281</v>
+        <v>0.4200308662475268</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.452378237029258</v>
+        <v>0.4523041695016539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4263210240313978</v>
+        <v>0.4270586041578874</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.3940722338885645</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4035042678769723</v>
+        <v>0.4035042678769722</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3989670644873139</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3524156388184909</v>
+        <v>0.3524373294501959</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3656590857354154</v>
+        <v>0.3694892118996326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.371883926854966</v>
+        <v>0.372286498190763</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4330127672332778</v>
+        <v>0.431669810000088</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4353448165581977</v>
+        <v>0.4399719861094696</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4260199947234633</v>
+        <v>0.425783943969496</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.4271867577129087</v>
+        <v>0.4271867577129086</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3930295905877894</v>
+        <v>0.3930295905877892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4067045996396325</v>
+        <v>0.4067045996396324</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3827487584781331</v>
+        <v>0.3834568182909837</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3612651205786534</v>
+        <v>0.3599096319967638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3783578524749474</v>
+        <v>0.3809417201200752</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4731617228428449</v>
+        <v>0.4767052983700344</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4285499725674221</v>
+        <v>0.4267674466081868</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4337465629163039</v>
+        <v>0.4367819782971528</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.4095199791310917</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.398320894686972</v>
+        <v>0.3983208946869721</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3688522342952918</v>
+        <v>0.3690403679398234</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3956173498595965</v>
+        <v>0.3951705881044274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3875037269118186</v>
+        <v>0.3874425447406189</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4047048648953335</v>
+        <v>0.4045604902872216</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4244171990395632</v>
+        <v>0.4237315365396638</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4098017464990757</v>
+        <v>0.4099970890596111</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>119250</v>
+        <v>121111</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>141886</v>
+        <v>136663</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>278344</v>
+        <v>273787</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>179668</v>
+        <v>183508</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>191844</v>
+        <v>190388</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>352984</v>
+        <v>354459</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>163013</v>
+        <v>161603</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>162522</v>
+        <v>163935</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>342794</v>
+        <v>343057</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>218906</v>
+        <v>216769</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>210623</v>
+        <v>210450</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>412352</v>
+        <v>411553</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>206408</v>
+        <v>208220</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>218424</v>
+        <v>218121</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>435659</v>
+        <v>438099</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>258602</v>
+        <v>256829</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>258907</v>
+        <v>257388</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>502067</v>
+        <v>499810</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>240090</v>
+        <v>243730</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>303859</v>
+        <v>303167</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>558752</v>
+        <v>556863</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>295740</v>
+        <v>295599</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>344998</v>
+        <v>346186</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>624307</v>
+        <v>627585</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>208420</v>
+        <v>208771</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>236242</v>
+        <v>238775</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>457859</v>
+        <v>459565</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>253228</v>
+        <v>254876</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>275113</v>
+        <v>275068</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>517959</v>
+        <v>518855</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>143461</v>
+        <v>143470</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>160585</v>
+        <v>162267</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>314705</v>
+        <v>315046</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>176271</v>
+        <v>175724</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>191189</v>
+        <v>193221</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>360518</v>
+        <v>360318</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>118728</v>
+        <v>118948</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>167847</v>
+        <v>167217</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>293154</v>
+        <v>295156</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>146774</v>
+        <v>147873</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>199108</v>
+        <v>198280</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>336070</v>
+        <v>338422</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1300780</v>
+        <v>1301443</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1477166</v>
+        <v>1475498</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2813426</v>
+        <v>2812982</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1427216</v>
+        <v>1426707</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1584700</v>
+        <v>1582139</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2975318</v>
+        <v>2976736</v>
       </c>
     </row>
     <row r="36">
